--- a/python/TODO.xlsx
+++ b/python/TODO.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\myWorksSpace\python\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA6DAD6F-AAC0-44CF-A514-02AE79744B5A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2139A55A-DA80-4C30-8FFF-16210FD5C8EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{7E23D5D6-7307-4441-AAC6-A96A3704AE7B}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" activeTab="2" xr2:uid="{7E23D5D6-7307-4441-AAC6-A96A3704AE7B}"/>
   </bookViews>
   <sheets>
     <sheet name="Google" sheetId="1" r:id="rId1"/>
@@ -5191,7 +5191,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="36">
+  <fills count="35">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -5383,12 +5383,6 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC00000"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
   <borders count="10">
     <border>
@@ -5551,15 +5545,12 @@
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="42"/>
     <xf numFmtId="0" fontId="18" fillId="33" borderId="0" xfId="42" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="18" fillId="34" borderId="0" xfId="42" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="18" fillId="35" borderId="0" xfId="42" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="43">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -5960,8 +5951,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6CD8F512-7A18-4FF9-93D9-01068574C85B}">
   <dimension ref="A1:C489"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A470" workbookViewId="0">
-      <selection activeCell="A81" sqref="A81"/>
+    <sheetView topLeftCell="A152" workbookViewId="0">
+      <selection activeCell="A120" sqref="A120:C120"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -5983,849 +5974,849 @@
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="2" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A3" s="2" t="s">
+      <c r="A3" s="1" t="s">
         <v>582</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="2" t="s">
         <v>583</v>
       </c>
-      <c r="C3" s="3">
+      <c r="C3" s="2">
         <v>75</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A4" s="2" t="s">
+      <c r="A4" s="1" t="s">
         <v>798</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="2" t="s">
         <v>799</v>
       </c>
-      <c r="C4" s="3">
+      <c r="C4" s="2">
         <v>73</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A5" s="2" t="s">
+      <c r="A5" s="1" t="s">
         <v>978</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="B5" s="2" t="s">
         <v>979</v>
       </c>
-      <c r="C5" s="3">
+      <c r="C5" s="2">
         <v>44</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A6" s="2" t="s">
+      <c r="A6" s="1" t="s">
         <v>206</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="B6" s="2" t="s">
         <v>207</v>
       </c>
-      <c r="C6" s="3">
+      <c r="C6" s="2">
         <v>36</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A7" s="2" t="s">
+      <c r="A7" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="B7" s="3" t="s">
+      <c r="B7" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="C7" s="3">
+      <c r="C7" s="2">
         <v>30</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A8" s="2" t="s">
+      <c r="A8" s="1" t="s">
         <v>428</v>
       </c>
-      <c r="B8" s="3" t="s">
+      <c r="B8" s="2" t="s">
         <v>429</v>
       </c>
-      <c r="C8" s="3">
+      <c r="C8" s="2">
         <v>30</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A9" s="2" t="s">
+      <c r="A9" s="1" t="s">
         <v>888</v>
       </c>
-      <c r="B9" s="3" t="s">
+      <c r="B9" s="2" t="s">
         <v>889</v>
       </c>
-      <c r="C9" s="3">
+      <c r="C9" s="2">
         <v>28</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A10" s="2" t="s">
+      <c r="A10" s="1" t="s">
         <v>436</v>
       </c>
-      <c r="B10" s="3" t="s">
+      <c r="B10" s="2" t="s">
         <v>437</v>
       </c>
-      <c r="C10" s="3">
+      <c r="C10" s="2">
         <v>27</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A11" s="2" t="s">
+      <c r="A11" s="1" t="s">
         <v>874</v>
       </c>
-      <c r="B11" s="3" t="s">
+      <c r="B11" s="2" t="s">
         <v>875</v>
       </c>
-      <c r="C11" s="3">
+      <c r="C11" s="2">
         <v>24</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A12" s="2" t="s">
+      <c r="A12" s="1" t="s">
         <v>586</v>
       </c>
-      <c r="B12" s="3" t="s">
+      <c r="B12" s="2" t="s">
         <v>587</v>
       </c>
-      <c r="C12" s="3">
+      <c r="C12" s="2">
         <v>22</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A13" s="2" t="s">
+      <c r="A13" s="1" t="s">
         <v>692</v>
       </c>
-      <c r="B13" s="3" t="s">
+      <c r="B13" s="2" t="s">
         <v>693</v>
       </c>
-      <c r="C13" s="3">
+      <c r="C13" s="2">
         <v>22</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A14" s="2" t="s">
+      <c r="A14" s="1" t="s">
         <v>760</v>
       </c>
-      <c r="B14" s="3" t="s">
+      <c r="B14" s="2" t="s">
         <v>761</v>
       </c>
-      <c r="C14" s="3">
+      <c r="C14" s="2">
         <v>22</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A15" s="2" t="s">
+      <c r="A15" s="1" t="s">
         <v>762</v>
       </c>
-      <c r="B15" s="3" t="s">
+      <c r="B15" s="2" t="s">
         <v>763</v>
       </c>
-      <c r="C15" s="3">
+      <c r="C15" s="2">
         <v>21</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A16" s="2" t="s">
+      <c r="A16" s="1" t="s">
         <v>554</v>
       </c>
-      <c r="B16" s="3" t="s">
+      <c r="B16" s="2" t="s">
         <v>555</v>
       </c>
-      <c r="C16" s="3">
+      <c r="C16" s="2">
         <v>19</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A17" s="2" t="s">
+      <c r="A17" s="1" t="s">
         <v>674</v>
       </c>
-      <c r="B17" s="3" t="s">
+      <c r="B17" s="2" t="s">
         <v>675</v>
       </c>
-      <c r="C17" s="3">
+      <c r="C17" s="2">
         <v>19</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A18" s="2" t="s">
+      <c r="A18" s="1" t="s">
         <v>152</v>
       </c>
-      <c r="B18" s="3" t="s">
+      <c r="B18" s="2" t="s">
         <v>153</v>
       </c>
-      <c r="C18" s="3">
+      <c r="C18" s="2">
         <v>17</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A19" s="2" t="s">
+      <c r="A19" s="1" t="s">
         <v>302</v>
       </c>
-      <c r="B19" s="3" t="s">
+      <c r="B19" s="2" t="s">
         <v>303</v>
       </c>
-      <c r="C19" s="3">
+      <c r="C19" s="2">
         <v>15</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A20" s="2" t="s">
+      <c r="A20" s="1" t="s">
         <v>414</v>
       </c>
-      <c r="B20" s="3" t="s">
+      <c r="B20" s="2" t="s">
         <v>415</v>
       </c>
-      <c r="C20" s="3">
+      <c r="C20" s="2">
         <v>15</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A21" s="2" t="s">
+      <c r="A21" s="1" t="s">
         <v>884</v>
       </c>
-      <c r="B21" s="3" t="s">
+      <c r="B21" s="2" t="s">
         <v>885</v>
       </c>
-      <c r="C21" s="3">
+      <c r="C21" s="2">
         <v>15</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A22" s="2" t="s">
+      <c r="A22" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="B22" s="3" t="s">
+      <c r="B22" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="C22" s="3">
+      <c r="C22" s="2">
         <v>14</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A23" s="4" t="s">
+      <c r="A23" s="3" t="s">
         <v>416</v>
       </c>
-      <c r="B23" s="5" t="s">
+      <c r="B23" s="4" t="s">
         <v>417</v>
       </c>
-      <c r="C23" s="5">
+      <c r="C23" s="4">
         <v>14</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A24" s="2" t="s">
+      <c r="A24" s="1" t="s">
         <v>972</v>
       </c>
-      <c r="B24" s="3" t="s">
+      <c r="B24" s="2" t="s">
         <v>973</v>
       </c>
-      <c r="C24" s="3">
+      <c r="C24" s="2">
         <v>14</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A25" s="2" t="s">
+      <c r="A25" s="1" t="s">
         <v>384</v>
       </c>
-      <c r="B25" s="3" t="s">
+      <c r="B25" s="2" t="s">
         <v>385</v>
       </c>
-      <c r="C25" s="3">
+      <c r="C25" s="2">
         <v>13</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A26" s="2" t="s">
+      <c r="A26" s="1" t="s">
         <v>974</v>
       </c>
-      <c r="B26" s="3" t="s">
+      <c r="B26" s="2" t="s">
         <v>975</v>
       </c>
-      <c r="C26" s="3">
+      <c r="C26" s="2">
         <v>13</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A27" s="2" t="s">
+      <c r="A27" s="1" t="s">
         <v>646</v>
       </c>
-      <c r="B27" s="3" t="s">
+      <c r="B27" s="2" t="s">
         <v>647</v>
       </c>
-      <c r="C27" s="3">
+      <c r="C27" s="2">
         <v>12</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A28" s="2" t="s">
+      <c r="A28" s="1" t="s">
         <v>724</v>
       </c>
-      <c r="B28" s="3" t="s">
+      <c r="B28" s="2" t="s">
         <v>725</v>
       </c>
-      <c r="C28" s="3">
+      <c r="C28" s="2">
         <v>12</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A29" s="2" t="s">
+      <c r="A29" s="1" t="s">
         <v>830</v>
       </c>
-      <c r="B29" s="3" t="s">
+      <c r="B29" s="2" t="s">
         <v>831</v>
       </c>
-      <c r="C29" s="3">
+      <c r="C29" s="2">
         <v>12</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A30" s="2" t="s">
+      <c r="A30" s="1" t="s">
         <v>954</v>
       </c>
-      <c r="B30" s="3" t="s">
+      <c r="B30" s="2" t="s">
         <v>955</v>
       </c>
-      <c r="C30" s="3">
+      <c r="C30" s="2">
         <v>12</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A31" s="2" t="s">
+      <c r="A31" s="1" t="s">
         <v>970</v>
       </c>
-      <c r="B31" s="3" t="s">
+      <c r="B31" s="2" t="s">
         <v>971</v>
       </c>
-      <c r="C31" s="3">
+      <c r="C31" s="2">
         <v>12</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A32" s="2" t="s">
+      <c r="A32" s="1" t="s">
         <v>162</v>
       </c>
-      <c r="B32" s="3" t="s">
+      <c r="B32" s="2" t="s">
         <v>163</v>
       </c>
-      <c r="C32" s="3">
+      <c r="C32" s="2">
         <v>11</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A33" s="2" t="s">
+      <c r="A33" s="1" t="s">
         <v>184</v>
       </c>
-      <c r="B33" s="3" t="s">
+      <c r="B33" s="2" t="s">
         <v>185</v>
       </c>
-      <c r="C33" s="3">
+      <c r="C33" s="2">
         <v>11</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A34" s="2" t="s">
+      <c r="A34" s="1" t="s">
         <v>748</v>
       </c>
-      <c r="B34" s="3" t="s">
+      <c r="B34" s="2" t="s">
         <v>749</v>
       </c>
-      <c r="C34" s="3">
+      <c r="C34" s="2">
         <v>11</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A35" s="2" t="s">
+      <c r="A35" s="1" t="s">
         <v>886</v>
       </c>
-      <c r="B35" s="3" t="s">
+      <c r="B35" s="2" t="s">
         <v>887</v>
       </c>
-      <c r="C35" s="3">
+      <c r="C35" s="2">
         <v>11</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A36" s="2" t="s">
+      <c r="A36" s="1" t="s">
         <v>894</v>
       </c>
-      <c r="B36" s="3" t="s">
+      <c r="B36" s="2" t="s">
         <v>895</v>
       </c>
-      <c r="C36" s="3">
+      <c r="C36" s="2">
         <v>11</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A37" s="2" t="s">
+      <c r="A37" s="1" t="s">
         <v>964</v>
       </c>
-      <c r="B37" s="3" t="s">
+      <c r="B37" s="2" t="s">
         <v>965</v>
       </c>
-      <c r="C37" s="3">
+      <c r="C37" s="2">
         <v>11</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A38" s="2" t="s">
+      <c r="A38" s="1" t="s">
         <v>520</v>
       </c>
-      <c r="B38" s="3" t="s">
+      <c r="B38" s="2" t="s">
         <v>521</v>
       </c>
-      <c r="C38" s="3">
+      <c r="C38" s="2">
         <v>10</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A39" s="2" t="s">
+      <c r="A39" s="1" t="s">
         <v>524</v>
       </c>
-      <c r="B39" s="3" t="s">
+      <c r="B39" s="2" t="s">
         <v>525</v>
       </c>
-      <c r="C39" s="3">
+      <c r="C39" s="2">
         <v>10</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A40" s="2" t="s">
+      <c r="A40" s="1" t="s">
         <v>956</v>
       </c>
-      <c r="B40" s="3" t="s">
+      <c r="B40" s="2" t="s">
         <v>957</v>
       </c>
-      <c r="C40" s="3">
+      <c r="C40" s="2">
         <v>10</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A41" s="2" t="s">
+      <c r="A41" s="1" t="s">
         <v>976</v>
       </c>
-      <c r="B41" s="3" t="s">
+      <c r="B41" s="2" t="s">
         <v>977</v>
       </c>
-      <c r="C41" s="3">
+      <c r="C41" s="2">
         <v>10</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A42" s="2" t="s">
+      <c r="A42" s="1" t="s">
         <v>348</v>
       </c>
-      <c r="B42" s="3" t="s">
+      <c r="B42" s="2" t="s">
         <v>349</v>
       </c>
-      <c r="C42" s="3">
+      <c r="C42" s="2">
         <v>9</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A43" s="2" t="s">
+      <c r="A43" s="1" t="s">
         <v>388</v>
       </c>
-      <c r="B43" s="3" t="s">
+      <c r="B43" s="2" t="s">
         <v>389</v>
       </c>
-      <c r="C43" s="3">
+      <c r="C43" s="2">
         <v>9</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A44" s="2" t="s">
+      <c r="A44" s="1" t="s">
         <v>678</v>
       </c>
-      <c r="B44" s="3" t="s">
+      <c r="B44" s="2" t="s">
         <v>679</v>
       </c>
-      <c r="C44" s="3">
+      <c r="C44" s="2">
         <v>9</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A45" s="2" t="s">
+      <c r="A45" s="1" t="s">
         <v>742</v>
       </c>
-      <c r="B45" s="3" t="s">
+      <c r="B45" s="2" t="s">
         <v>743</v>
       </c>
-      <c r="C45" s="3">
+      <c r="C45" s="2">
         <v>9</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A46" s="2" t="s">
+      <c r="A46" s="1" t="s">
         <v>752</v>
       </c>
-      <c r="B46" s="3" t="s">
+      <c r="B46" s="2" t="s">
         <v>753</v>
       </c>
-      <c r="C46" s="3">
+      <c r="C46" s="2">
         <v>9</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A47" s="2" t="s">
+      <c r="A47" s="1" t="s">
         <v>804</v>
       </c>
-      <c r="B47" s="3" t="s">
+      <c r="B47" s="2" t="s">
         <v>805</v>
       </c>
-      <c r="C47" s="3">
+      <c r="C47" s="2">
         <v>9</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A48" s="2" t="s">
+      <c r="A48" s="1" t="s">
         <v>962</v>
       </c>
-      <c r="B48" s="3" t="s">
+      <c r="B48" s="2" t="s">
         <v>963</v>
       </c>
-      <c r="C48" s="3">
+      <c r="C48" s="2">
         <v>9</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A49" s="2" t="s">
+      <c r="A49" s="1" t="s">
         <v>182</v>
       </c>
-      <c r="B49" s="3" t="s">
+      <c r="B49" s="2" t="s">
         <v>183</v>
       </c>
-      <c r="C49" s="3">
+      <c r="C49" s="2">
         <v>8</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A50" s="2" t="s">
+      <c r="A50" s="1" t="s">
         <v>326</v>
       </c>
-      <c r="B50" s="3" t="s">
+      <c r="B50" s="2" t="s">
         <v>327</v>
       </c>
-      <c r="C50" s="3">
+      <c r="C50" s="2">
         <v>8</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A51" s="2" t="s">
+      <c r="A51" s="1" t="s">
         <v>522</v>
       </c>
-      <c r="B51" s="3" t="s">
+      <c r="B51" s="2" t="s">
         <v>523</v>
       </c>
-      <c r="C51" s="3">
+      <c r="C51" s="2">
         <v>8</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A52" s="2" t="s">
+      <c r="A52" s="1" t="s">
         <v>534</v>
       </c>
-      <c r="B52" s="3" t="s">
+      <c r="B52" s="2" t="s">
         <v>535</v>
       </c>
-      <c r="C52" s="3">
+      <c r="C52" s="2">
         <v>8</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A53" s="2" t="s">
+      <c r="A53" s="1" t="s">
         <v>548</v>
       </c>
-      <c r="B53" s="3" t="s">
+      <c r="B53" s="2" t="s">
         <v>549</v>
       </c>
-      <c r="C53" s="3">
+      <c r="C53" s="2">
         <v>8</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A54" s="2" t="s">
+      <c r="A54" s="1" t="s">
         <v>600</v>
       </c>
-      <c r="B54" s="3" t="s">
+      <c r="B54" s="2" t="s">
         <v>601</v>
       </c>
-      <c r="C54" s="3">
+      <c r="C54" s="2">
         <v>8</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A55" s="2" t="s">
+      <c r="A55" s="1" t="s">
         <v>668</v>
       </c>
-      <c r="B55" s="3" t="s">
+      <c r="B55" s="2" t="s">
         <v>669</v>
       </c>
-      <c r="C55" s="3">
+      <c r="C55" s="2">
         <v>8</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A56" s="2" t="s">
+      <c r="A56" s="1" t="s">
         <v>708</v>
       </c>
-      <c r="B56" s="3" t="s">
+      <c r="B56" s="2" t="s">
         <v>709</v>
       </c>
-      <c r="C56" s="3">
+      <c r="C56" s="2">
         <v>8</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A57" s="2" t="s">
+      <c r="A57" s="1" t="s">
         <v>710</v>
       </c>
-      <c r="B57" s="3" t="s">
+      <c r="B57" s="2" t="s">
         <v>711</v>
       </c>
-      <c r="C57" s="3">
+      <c r="C57" s="2">
         <v>8</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A58" s="2" t="s">
+      <c r="A58" s="1" t="s">
         <v>740</v>
       </c>
-      <c r="B58" s="3" t="s">
+      <c r="B58" s="2" t="s">
         <v>741</v>
       </c>
-      <c r="C58" s="3">
+      <c r="C58" s="2">
         <v>8</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A59" s="2" t="s">
+      <c r="A59" s="1" t="s">
         <v>858</v>
       </c>
-      <c r="B59" s="3" t="s">
+      <c r="B59" s="2" t="s">
         <v>859</v>
       </c>
-      <c r="C59" s="3">
+      <c r="C59" s="2">
         <v>8</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A60" s="2" t="s">
+      <c r="A60" s="1" t="s">
         <v>892</v>
       </c>
-      <c r="B60" s="3" t="s">
+      <c r="B60" s="2" t="s">
         <v>893</v>
       </c>
-      <c r="C60" s="3">
+      <c r="C60" s="2">
         <v>8</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A61" s="2" t="s">
+      <c r="A61" s="1" t="s">
         <v>912</v>
       </c>
-      <c r="B61" s="3" t="s">
+      <c r="B61" s="2" t="s">
         <v>913</v>
       </c>
-      <c r="C61" s="3">
+      <c r="C61" s="2">
         <v>8</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A62" s="2" t="s">
+      <c r="A62" s="1" t="s">
         <v>936</v>
       </c>
-      <c r="B62" s="3" t="s">
+      <c r="B62" s="2" t="s">
         <v>937</v>
       </c>
-      <c r="C62" s="3">
+      <c r="C62" s="2">
         <v>8</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A63" s="2" t="s">
+      <c r="A63" s="1" t="s">
         <v>952</v>
       </c>
-      <c r="B63" s="3" t="s">
+      <c r="B63" s="2" t="s">
         <v>953</v>
       </c>
-      <c r="C63" s="3">
+      <c r="C63" s="2">
         <v>8</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A64" s="2" t="s">
+      <c r="A64" s="1" t="s">
         <v>166</v>
       </c>
-      <c r="B64" s="3" t="s">
+      <c r="B64" s="2" t="s">
         <v>167</v>
       </c>
-      <c r="C64" s="3">
+      <c r="C64" s="2">
         <v>7</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A65" s="2" t="s">
+      <c r="A65" s="1" t="s">
         <v>350</v>
       </c>
-      <c r="B65" s="3" t="s">
+      <c r="B65" s="2" t="s">
         <v>351</v>
       </c>
-      <c r="C65" s="3">
+      <c r="C65" s="2">
         <v>7</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A66" s="2" t="s">
+      <c r="A66" s="1" t="s">
         <v>514</v>
       </c>
-      <c r="B66" s="3" t="s">
+      <c r="B66" s="2" t="s">
         <v>515</v>
       </c>
-      <c r="C66" s="3">
+      <c r="C66" s="2">
         <v>7</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A67" s="2" t="s">
+      <c r="A67" s="1" t="s">
         <v>562</v>
       </c>
-      <c r="B67" s="3" t="s">
+      <c r="B67" s="2" t="s">
         <v>563</v>
       </c>
-      <c r="C67" s="3">
+      <c r="C67" s="2">
         <v>7</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A68" s="2" t="s">
+      <c r="A68" s="1" t="s">
         <v>592</v>
       </c>
-      <c r="B68" s="3" t="s">
+      <c r="B68" s="2" t="s">
         <v>593</v>
       </c>
-      <c r="C68" s="3">
+      <c r="C68" s="2">
         <v>7</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A69" s="2" t="s">
+      <c r="A69" s="1" t="s">
         <v>634</v>
       </c>
-      <c r="B69" s="3" t="s">
+      <c r="B69" s="2" t="s">
         <v>635</v>
       </c>
-      <c r="C69" s="3">
+      <c r="C69" s="2">
         <v>7</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A70" s="2" t="s">
+      <c r="A70" s="1" t="s">
         <v>644</v>
       </c>
-      <c r="B70" s="3" t="s">
+      <c r="B70" s="2" t="s">
         <v>645</v>
       </c>
-      <c r="C70" s="3">
+      <c r="C70" s="2">
         <v>7</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A71" s="2" t="s">
+      <c r="A71" s="1" t="s">
         <v>682</v>
       </c>
-      <c r="B71" s="3" t="s">
+      <c r="B71" s="2" t="s">
         <v>683</v>
       </c>
-      <c r="C71" s="3">
+      <c r="C71" s="2">
         <v>7</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A72" s="6" t="s">
+      <c r="A72" s="1" t="s">
         <v>726</v>
       </c>
-      <c r="B72" s="7" t="s">
+      <c r="B72" s="2" t="s">
         <v>727</v>
       </c>
-      <c r="C72" s="7">
+      <c r="C72" s="2">
         <v>7</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A73" s="2" t="s">
+      <c r="A73" s="1" t="s">
         <v>764</v>
       </c>
-      <c r="B73" s="3" t="s">
+      <c r="B73" s="2" t="s">
         <v>765</v>
       </c>
-      <c r="C73" s="3">
+      <c r="C73" s="2">
         <v>7</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A74" s="2" t="s">
+      <c r="A74" s="1" t="s">
         <v>784</v>
       </c>
-      <c r="B74" s="3" t="s">
+      <c r="B74" s="2" t="s">
         <v>785</v>
       </c>
-      <c r="C74" s="3">
+      <c r="C74" s="2">
         <v>7</v>
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A75" s="2" t="s">
+      <c r="A75" s="1" t="s">
         <v>824</v>
       </c>
-      <c r="B75" s="3" t="s">
+      <c r="B75" s="2" t="s">
         <v>825</v>
       </c>
-      <c r="C75" s="3">
+      <c r="C75" s="2">
         <v>7</v>
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A76" s="2" t="s">
+      <c r="A76" s="1" t="s">
         <v>862</v>
       </c>
-      <c r="B76" s="3" t="s">
+      <c r="B76" s="2" t="s">
         <v>863</v>
       </c>
-      <c r="C76" s="3">
+      <c r="C76" s="2">
         <v>7</v>
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A77" s="2" t="s">
+      <c r="A77" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B77" s="3" t="s">
+      <c r="B77" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="C77" s="3">
+      <c r="C77" s="2">
         <v>6</v>
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A78" s="2" t="s">
+      <c r="A78" s="1" t="s">
         <v>214</v>
       </c>
-      <c r="B78" s="3" t="s">
+      <c r="B78" s="2" t="s">
         <v>215</v>
       </c>
-      <c r="C78" s="3">
+      <c r="C78" s="2">
         <v>6</v>
       </c>
     </row>
@@ -6833,461 +6824,461 @@
       <c r="A79" s="1" t="s">
         <v>340</v>
       </c>
-      <c r="B79" t="s">
+      <c r="B79" s="2" t="s">
         <v>341</v>
       </c>
-      <c r="C79">
+      <c r="C79" s="2">
         <v>6</v>
       </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A80" t="s">
+      <c r="A80" s="1" t="s">
         <v>352</v>
       </c>
-      <c r="B80" t="s">
+      <c r="B80" s="2" t="s">
         <v>353</v>
       </c>
-      <c r="C80">
+      <c r="C80" s="2">
         <v>6</v>
       </c>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A81" t="s">
+      <c r="A81" s="1" t="s">
         <v>424</v>
       </c>
-      <c r="B81" t="s">
+      <c r="B81" s="2" t="s">
         <v>425</v>
       </c>
-      <c r="C81">
+      <c r="C81" s="2">
         <v>6</v>
       </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A82" t="s">
+      <c r="A82" s="1" t="s">
         <v>560</v>
       </c>
-      <c r="B82" t="s">
+      <c r="B82" s="2" t="s">
         <v>561</v>
       </c>
-      <c r="C82">
+      <c r="C82" s="2">
         <v>6</v>
       </c>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A83" t="s">
+      <c r="A83" s="1" t="s">
         <v>628</v>
       </c>
-      <c r="B83" t="s">
+      <c r="B83" s="2" t="s">
         <v>629</v>
       </c>
-      <c r="C83">
+      <c r="C83" s="2">
         <v>6</v>
       </c>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A84" t="s">
+      <c r="A84" s="1" t="s">
         <v>630</v>
       </c>
-      <c r="B84" t="s">
+      <c r="B84" s="2" t="s">
         <v>631</v>
       </c>
-      <c r="C84">
+      <c r="C84" s="2">
         <v>6</v>
       </c>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A85" t="s">
+      <c r="A85" s="1" t="s">
         <v>638</v>
       </c>
-      <c r="B85" t="s">
+      <c r="B85" s="2" t="s">
         <v>639</v>
       </c>
-      <c r="C85">
+      <c r="C85" s="2">
         <v>6</v>
       </c>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A86" t="s">
+      <c r="A86" s="1" t="s">
         <v>736</v>
       </c>
-      <c r="B86" t="s">
+      <c r="B86" s="2" t="s">
         <v>737</v>
       </c>
-      <c r="C86">
+      <c r="C86" s="2">
         <v>6</v>
       </c>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A87" t="s">
+      <c r="A87" s="1" t="s">
         <v>826</v>
       </c>
-      <c r="B87" t="s">
+      <c r="B87" s="2" t="s">
         <v>827</v>
       </c>
-      <c r="C87">
+      <c r="C87" s="2">
         <v>6</v>
       </c>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A88" t="s">
+      <c r="A88" s="1" t="s">
         <v>942</v>
       </c>
-      <c r="B88" t="s">
+      <c r="B88" s="2" t="s">
         <v>943</v>
       </c>
-      <c r="C88">
+      <c r="C88" s="2">
         <v>6</v>
       </c>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A89" t="s">
+      <c r="A89" s="1" t="s">
         <v>966</v>
       </c>
-      <c r="B89" t="s">
+      <c r="B89" s="2" t="s">
         <v>967</v>
       </c>
-      <c r="C89">
+      <c r="C89" s="2">
         <v>6</v>
       </c>
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A90" t="s">
+      <c r="A90" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="B90" t="s">
+      <c r="B90" s="2" t="s">
         <v>125</v>
       </c>
-      <c r="C90">
+      <c r="C90" s="2">
         <v>5</v>
       </c>
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A91" t="s">
+      <c r="A91" s="1" t="s">
         <v>170</v>
       </c>
-      <c r="B91" t="s">
+      <c r="B91" s="2" t="s">
         <v>171</v>
       </c>
-      <c r="C91">
+      <c r="C91" s="2">
         <v>5</v>
       </c>
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A92" t="s">
+      <c r="A92" s="1" t="s">
         <v>222</v>
       </c>
-      <c r="B92" t="s">
+      <c r="B92" s="2" t="s">
         <v>223</v>
       </c>
-      <c r="C92">
+      <c r="C92" s="2">
         <v>5</v>
       </c>
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A93" t="s">
+      <c r="A93" s="1" t="s">
         <v>252</v>
       </c>
-      <c r="B93" t="s">
+      <c r="B93" s="2" t="s">
         <v>253</v>
       </c>
-      <c r="C93">
+      <c r="C93" s="2">
         <v>5</v>
       </c>
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A94" t="s">
+      <c r="A94" s="1" t="s">
         <v>412</v>
       </c>
-      <c r="B94" t="s">
+      <c r="B94" s="2" t="s">
         <v>413</v>
       </c>
-      <c r="C94">
+      <c r="C94" s="2">
         <v>5</v>
       </c>
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A95" t="s">
+      <c r="A95" s="1" t="s">
         <v>418</v>
       </c>
-      <c r="B95" t="s">
+      <c r="B95" s="2" t="s">
         <v>419</v>
       </c>
-      <c r="C95">
+      <c r="C95" s="2">
         <v>5</v>
       </c>
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A96" t="s">
+      <c r="A96" s="1" t="s">
         <v>498</v>
       </c>
-      <c r="B96" t="s">
+      <c r="B96" s="2" t="s">
         <v>499</v>
       </c>
-      <c r="C96">
+      <c r="C96" s="2">
         <v>5</v>
       </c>
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A97" t="s">
+      <c r="A97" s="1" t="s">
         <v>528</v>
       </c>
-      <c r="B97" t="s">
+      <c r="B97" s="2" t="s">
         <v>529</v>
       </c>
-      <c r="C97">
+      <c r="C97" s="2">
         <v>5</v>
       </c>
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A98" t="s">
+      <c r="A98" s="1" t="s">
         <v>608</v>
       </c>
-      <c r="B98" t="s">
+      <c r="B98" s="2" t="s">
         <v>609</v>
       </c>
-      <c r="C98">
+      <c r="C98" s="2">
         <v>5</v>
       </c>
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A99" t="s">
+      <c r="A99" s="1" t="s">
         <v>622</v>
       </c>
-      <c r="B99" t="s">
+      <c r="B99" s="2" t="s">
         <v>623</v>
       </c>
-      <c r="C99">
+      <c r="C99" s="2">
         <v>5</v>
       </c>
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A100" t="s">
+      <c r="A100" s="1" t="s">
         <v>664</v>
       </c>
-      <c r="B100" t="s">
+      <c r="B100" s="2" t="s">
         <v>665</v>
       </c>
-      <c r="C100">
+      <c r="C100" s="2">
         <v>5</v>
       </c>
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A101" t="s">
+      <c r="A101" s="1" t="s">
         <v>744</v>
       </c>
-      <c r="B101" t="s">
+      <c r="B101" s="2" t="s">
         <v>745</v>
       </c>
-      <c r="C101">
+      <c r="C101" s="2">
         <v>5</v>
       </c>
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A102" t="s">
+      <c r="A102" s="1" t="s">
         <v>754</v>
       </c>
-      <c r="B102" t="s">
+      <c r="B102" s="2" t="s">
         <v>755</v>
       </c>
-      <c r="C102">
+      <c r="C102" s="2">
         <v>5</v>
       </c>
     </row>
     <row r="103" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A103" t="s">
+      <c r="A103" s="1" t="s">
         <v>786</v>
       </c>
-      <c r="B103" t="s">
+      <c r="B103" s="2" t="s">
         <v>787</v>
       </c>
-      <c r="C103">
+      <c r="C103" s="2">
         <v>5</v>
       </c>
     </row>
     <row r="104" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A104" t="s">
+      <c r="A104" s="1" t="s">
         <v>818</v>
       </c>
-      <c r="B104" t="s">
+      <c r="B104" s="2" t="s">
         <v>819</v>
       </c>
-      <c r="C104">
+      <c r="C104" s="2">
         <v>5</v>
       </c>
     </row>
     <row r="105" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A105" t="s">
+      <c r="A105" s="1" t="s">
         <v>822</v>
       </c>
-      <c r="B105" t="s">
+      <c r="B105" s="2" t="s">
         <v>823</v>
       </c>
-      <c r="C105">
+      <c r="C105" s="2">
         <v>5</v>
       </c>
     </row>
     <row r="106" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A106" t="s">
+      <c r="A106" s="1" t="s">
         <v>848</v>
       </c>
-      <c r="B106" t="s">
+      <c r="B106" s="2" t="s">
         <v>849</v>
       </c>
-      <c r="C106">
+      <c r="C106" s="2">
         <v>5</v>
       </c>
     </row>
     <row r="107" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A107" t="s">
+      <c r="A107" s="1" t="s">
         <v>864</v>
       </c>
-      <c r="B107" t="s">
+      <c r="B107" s="2" t="s">
         <v>865</v>
       </c>
-      <c r="C107">
+      <c r="C107" s="2">
         <v>5</v>
       </c>
     </row>
     <row r="108" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A108" t="s">
+      <c r="A108" s="1" t="s">
         <v>868</v>
       </c>
-      <c r="B108" t="s">
+      <c r="B108" s="2" t="s">
         <v>869</v>
       </c>
-      <c r="C108">
+      <c r="C108" s="2">
         <v>5</v>
       </c>
     </row>
     <row r="109" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A109" t="s">
+      <c r="A109" s="1" t="s">
         <v>878</v>
       </c>
-      <c r="B109" t="s">
+      <c r="B109" s="2" t="s">
         <v>879</v>
       </c>
-      <c r="C109">
+      <c r="C109" s="2">
         <v>5</v>
       </c>
     </row>
     <row r="110" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A110" t="s">
+      <c r="A110" s="1" t="s">
         <v>898</v>
       </c>
-      <c r="B110" t="s">
+      <c r="B110" s="2" t="s">
         <v>899</v>
       </c>
-      <c r="C110">
+      <c r="C110" s="2">
         <v>5</v>
       </c>
     </row>
     <row r="111" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A111" t="s">
+      <c r="A111" s="1" t="s">
         <v>900</v>
       </c>
-      <c r="B111" t="s">
+      <c r="B111" s="2" t="s">
         <v>901</v>
       </c>
-      <c r="C111">
+      <c r="C111" s="2">
         <v>5</v>
       </c>
     </row>
     <row r="112" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A112" t="s">
+      <c r="A112" s="1" t="s">
         <v>904</v>
       </c>
-      <c r="B112" t="s">
+      <c r="B112" s="2" t="s">
         <v>905</v>
       </c>
-      <c r="C112">
+      <c r="C112" s="2">
         <v>5</v>
       </c>
     </row>
     <row r="113" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A113" t="s">
+      <c r="A113" s="1" t="s">
         <v>910</v>
       </c>
-      <c r="B113" t="s">
+      <c r="B113" s="2" t="s">
         <v>911</v>
       </c>
-      <c r="C113">
+      <c r="C113" s="2">
         <v>5</v>
       </c>
     </row>
     <row r="114" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A114" t="s">
+      <c r="A114" s="1" t="s">
         <v>914</v>
       </c>
-      <c r="B114" t="s">
+      <c r="B114" s="2" t="s">
         <v>915</v>
       </c>
-      <c r="C114">
+      <c r="C114" s="2">
         <v>5</v>
       </c>
     </row>
     <row r="115" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A115" t="s">
+      <c r="A115" s="1" t="s">
         <v>918</v>
       </c>
-      <c r="B115" t="s">
+      <c r="B115" s="2" t="s">
         <v>919</v>
       </c>
-      <c r="C115">
+      <c r="C115" s="2">
         <v>5</v>
       </c>
     </row>
     <row r="116" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A116" t="s">
+      <c r="A116" s="1" t="s">
         <v>926</v>
       </c>
-      <c r="B116" t="s">
+      <c r="B116" s="2" t="s">
         <v>927</v>
       </c>
-      <c r="C116">
+      <c r="C116" s="2">
         <v>5</v>
       </c>
     </row>
     <row r="117" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A117" t="s">
+      <c r="A117" s="1" t="s">
         <v>944</v>
       </c>
-      <c r="B117" t="s">
+      <c r="B117" s="2" t="s">
         <v>945</v>
       </c>
-      <c r="C117">
+      <c r="C117" s="2">
         <v>5</v>
       </c>
     </row>
     <row r="118" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A118" t="s">
+      <c r="A118" s="1" t="s">
         <v>948</v>
       </c>
-      <c r="B118" t="s">
+      <c r="B118" s="2" t="s">
         <v>949</v>
       </c>
-      <c r="C118">
+      <c r="C118" s="2">
         <v>5</v>
       </c>
     </row>
     <row r="119" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A119" t="s">
+      <c r="A119" s="1" t="s">
         <v>960</v>
       </c>
-      <c r="B119" t="s">
+      <c r="B119" s="2" t="s">
         <v>961</v>
       </c>
-      <c r="C119">
+      <c r="C119" s="2">
         <v>5</v>
       </c>
     </row>
     <row r="120" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A120" t="s">
+      <c r="A120" s="1" t="s">
         <v>968</v>
       </c>
-      <c r="B120" t="s">
+      <c r="B120" s="2" t="s">
         <v>969</v>
       </c>
-      <c r="C120">
+      <c r="C120" s="2">
         <v>5</v>
       </c>
     </row>
@@ -11430,10 +11421,51 @@
     <hyperlink ref="A77" r:id="rId76" xr:uid="{F1C560C1-9D7D-4CF8-AD4C-E041792E4A78}"/>
     <hyperlink ref="A78" r:id="rId77" xr:uid="{6C81C5B4-4F9E-450D-9548-470681E9A190}"/>
     <hyperlink ref="A79" r:id="rId78" xr:uid="{8F8EBA06-BCB1-45F1-881E-B7E339B98C0C}"/>
+    <hyperlink ref="A80" r:id="rId79" xr:uid="{98906843-A71A-44B5-89FD-A4F59AEF2C24}"/>
+    <hyperlink ref="A81" r:id="rId80" xr:uid="{D30D60CC-2F8E-4C57-BE40-9101C34DE827}"/>
+    <hyperlink ref="A82" r:id="rId81" xr:uid="{6E13E513-DCDF-4D64-A153-E22FDC95CBAE}"/>
+    <hyperlink ref="A83" r:id="rId82" xr:uid="{FB90848C-BC7F-4F1B-8004-80BC357DB1D3}"/>
+    <hyperlink ref="A84" r:id="rId83" xr:uid="{4BF6F8E7-AEC8-464A-8C36-EEAB615DBEBB}"/>
+    <hyperlink ref="A85" r:id="rId84" xr:uid="{EF53ED36-D898-436A-BBD7-388163573291}"/>
+    <hyperlink ref="A86" r:id="rId85" xr:uid="{BC8A6785-5A7F-4B25-9CDE-FF6F899BCC85}"/>
+    <hyperlink ref="A87" r:id="rId86" xr:uid="{50104572-B860-45AC-B8C8-C595C34C0711}"/>
+    <hyperlink ref="A88" r:id="rId87" xr:uid="{217E4C1F-E49B-4A35-9B05-6AE749C4D8EC}"/>
+    <hyperlink ref="A89" r:id="rId88" xr:uid="{1E25CE42-3846-460F-943F-DEF7DC42AF90}"/>
+    <hyperlink ref="A90" r:id="rId89" xr:uid="{E6840537-B1C3-4C77-B951-1766D7B2C150}"/>
+    <hyperlink ref="A91" r:id="rId90" xr:uid="{F8D53178-C011-4D19-9123-28D53546848A}"/>
+    <hyperlink ref="A92" r:id="rId91" xr:uid="{87B371A8-1198-4142-B5AA-0AE6E6B73168}"/>
+    <hyperlink ref="A93" r:id="rId92" xr:uid="{84301D5C-E4A9-4D43-97FA-9B2A0EC29924}"/>
+    <hyperlink ref="A94" r:id="rId93" xr:uid="{C413BE5B-4D7F-4B0F-8607-D016731CF998}"/>
+    <hyperlink ref="A95" r:id="rId94" xr:uid="{B91B9FE8-6A90-4F42-A7CF-86BF3826CC6D}"/>
+    <hyperlink ref="A96" r:id="rId95" xr:uid="{46410319-1EC3-45E7-B586-ECE9E685A33B}"/>
+    <hyperlink ref="A97" r:id="rId96" xr:uid="{DC85AF1C-42B6-4B7D-9CE5-B7CF56A85481}"/>
+    <hyperlink ref="A98" r:id="rId97" xr:uid="{0A90F527-FB0E-400D-97B9-94B4B722F9D2}"/>
+    <hyperlink ref="A99" r:id="rId98" xr:uid="{7590D473-2FEB-4497-BE97-EE42351D7B1C}"/>
+    <hyperlink ref="A100" r:id="rId99" xr:uid="{86600A9D-869F-453A-A4A6-C643C62F37CF}"/>
+    <hyperlink ref="A101" r:id="rId100" xr:uid="{910E9418-0C54-4330-A5B1-D3E267A906EB}"/>
+    <hyperlink ref="A102" r:id="rId101" xr:uid="{78134CDD-8D4E-4028-BAFA-6CCFE106B1EE}"/>
+    <hyperlink ref="A103" r:id="rId102" xr:uid="{25D38D1B-BB14-4226-B8B9-7A455B95BB00}"/>
+    <hyperlink ref="A104" r:id="rId103" xr:uid="{5A4020CA-7C21-4D7B-A33C-5417B3E74689}"/>
+    <hyperlink ref="A105" r:id="rId104" xr:uid="{20461CB5-5EE2-418F-A239-098AEB2551D0}"/>
+    <hyperlink ref="A106" r:id="rId105" xr:uid="{3D0F687C-9AF5-4986-B9E7-34DF8481DCB5}"/>
+    <hyperlink ref="A107" r:id="rId106" xr:uid="{A748057D-CB78-4128-BBAE-131BBDC23BCC}"/>
+    <hyperlink ref="A108" r:id="rId107" xr:uid="{BA23B32F-4C32-4839-858C-A328F7B03087}"/>
+    <hyperlink ref="A109" r:id="rId108" xr:uid="{6184785C-A512-4658-91B6-55FD39496901}"/>
+    <hyperlink ref="A110" r:id="rId109" xr:uid="{7985B2C5-489E-4906-99B0-1DA72B4BEF8D}"/>
+    <hyperlink ref="A111" r:id="rId110" xr:uid="{3AD44CDF-234B-422E-AEB1-EA22567EA114}"/>
+    <hyperlink ref="A112" r:id="rId111" xr:uid="{1245479D-3956-4551-BC1A-85BFC6FE4020}"/>
+    <hyperlink ref="A113" r:id="rId112" xr:uid="{73FDF1D4-D999-4DE3-AF50-A66741DE5530}"/>
+    <hyperlink ref="A114" r:id="rId113" xr:uid="{7E5324D2-CC7A-446D-8980-1884ED570434}"/>
+    <hyperlink ref="A115" r:id="rId114" xr:uid="{08C20994-6F6A-4ACF-803B-083C2EC47D16}"/>
+    <hyperlink ref="A116" r:id="rId115" xr:uid="{4FB84048-6077-4896-BC5E-FB842CC5CB20}"/>
+    <hyperlink ref="A117" r:id="rId116" xr:uid="{D18361CD-7DBD-427B-9C75-B963925B140C}"/>
+    <hyperlink ref="A118" r:id="rId117" xr:uid="{C9E6FE4B-CEF8-467B-BF6C-4A0F3E723203}"/>
+    <hyperlink ref="A119" r:id="rId118" xr:uid="{030B211B-6BE7-4417-AD96-6B07116BDB97}"/>
+    <hyperlink ref="A120" r:id="rId119" xr:uid="{909DA456-CD11-4EAD-BD81-CB15061AD0FE}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
-    <tablePart r:id="rId79"/>
+    <tablePart r:id="rId120"/>
   </tableParts>
 </worksheet>
 </file>
@@ -11442,7 +11474,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E34929A2-EA05-49D5-9319-3D25EBAE5063}">
   <dimension ref="A1:C593"/>
   <sheetViews>
-    <sheetView topLeftCell="A118" workbookViewId="0">
+    <sheetView topLeftCell="A247" workbookViewId="0">
       <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
@@ -17988,8 +18020,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C141ABB1-2A1D-438C-B312-A5BAAC87E22F}">
   <dimension ref="A1:C64"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -18011,702 +18043,767 @@
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
+      <c r="A2" s="1" t="s">
         <v>1646</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="2" t="s">
         <v>1647</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="2" t="s">
         <v>1648</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
+      <c r="A3" s="1" t="s">
         <v>912</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="2" t="s">
         <v>913</v>
       </c>
-      <c r="C3">
+      <c r="C3" s="2">
         <v>38</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A4" t="s">
+      <c r="A4" s="1" t="s">
         <v>1655</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="2" t="s">
         <v>1656</v>
       </c>
-      <c r="C4">
+      <c r="C4" s="2">
         <v>20</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A5" t="s">
+      <c r="A5" s="1" t="s">
         <v>972</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="2" t="s">
         <v>973</v>
       </c>
-      <c r="C5">
+      <c r="C5" s="2">
         <v>18</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A6" t="s">
+      <c r="A6" s="1" t="s">
         <v>1651</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="2" t="s">
         <v>1652</v>
       </c>
-      <c r="C6">
+      <c r="C6" s="2">
         <v>12</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A7" t="s">
+      <c r="A7" s="1" t="s">
         <v>328</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" s="2" t="s">
         <v>329</v>
       </c>
-      <c r="C7">
+      <c r="C7" s="2">
         <v>11</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A8" t="s">
+      <c r="A8" s="1" t="s">
         <v>830</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B8" s="2" t="s">
         <v>831</v>
       </c>
-      <c r="C8">
+      <c r="C8" s="2">
         <v>11</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A9" t="s">
+      <c r="A9" s="1" t="s">
         <v>336</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B9" s="2" t="s">
         <v>337</v>
       </c>
-      <c r="C9">
+      <c r="C9" s="2">
         <v>9</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A10" t="s">
+      <c r="A10" s="1" t="s">
         <v>1230</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B10" s="2" t="s">
         <v>1231</v>
       </c>
-      <c r="C10">
+      <c r="C10" s="2">
         <v>7</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A11" t="s">
+      <c r="A11" s="1" t="s">
         <v>978</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B11" s="2" t="s">
         <v>979</v>
       </c>
-      <c r="C11">
+      <c r="C11" s="2">
         <v>7</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A12" t="s">
+      <c r="A12" s="1" t="s">
         <v>1058</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B12" s="2" t="s">
         <v>1059</v>
       </c>
-      <c r="C12">
+      <c r="C12" s="2">
         <v>6</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A13" t="s">
+      <c r="A13" s="1" t="s">
         <v>804</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B13" s="2" t="s">
         <v>805</v>
       </c>
-      <c r="C13">
+      <c r="C13" s="2">
         <v>6</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A14" t="s">
+      <c r="A14" s="1" t="s">
         <v>1659</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B14" s="2" t="s">
         <v>1660</v>
       </c>
-      <c r="C14">
+      <c r="C14" s="2">
         <v>5</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A15" t="s">
+      <c r="A15" s="1" t="s">
         <v>970</v>
       </c>
-      <c r="B15" t="s">
+      <c r="B15" s="2" t="s">
         <v>971</v>
       </c>
-      <c r="C15">
+      <c r="C15" s="2">
         <v>5</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A16" t="s">
+      <c r="A16" s="1" t="s">
         <v>1644</v>
       </c>
-      <c r="B16" t="s">
+      <c r="B16" s="2" t="s">
         <v>1645</v>
       </c>
-      <c r="C16">
+      <c r="C16" s="2">
         <v>4</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A17" t="s">
+      <c r="A17" s="1" t="s">
         <v>1663</v>
       </c>
-      <c r="B17" t="s">
+      <c r="B17" s="2" t="s">
         <v>1664</v>
       </c>
-      <c r="C17">
+      <c r="C17" s="2">
         <v>4</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A18" t="s">
+      <c r="A18" s="1" t="s">
         <v>1665</v>
       </c>
-      <c r="B18" t="s">
+      <c r="B18" s="2" t="s">
         <v>1666</v>
       </c>
-      <c r="C18">
+      <c r="C18" s="2">
         <v>4</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A19" t="s">
+      <c r="A19" s="1" t="s">
         <v>992</v>
       </c>
-      <c r="B19" t="s">
+      <c r="B19" s="2" t="s">
         <v>993</v>
       </c>
-      <c r="C19">
+      <c r="C19" s="2">
         <v>4</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A20" t="s">
+      <c r="A20" s="1" t="s">
         <v>952</v>
       </c>
-      <c r="B20" t="s">
+      <c r="B20" s="2" t="s">
         <v>953</v>
       </c>
-      <c r="C20">
+      <c r="C20" s="2">
         <v>4</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A21" t="s">
+      <c r="A21" s="1" t="s">
         <v>974</v>
       </c>
-      <c r="B21" t="s">
+      <c r="B21" s="2" t="s">
         <v>975</v>
       </c>
-      <c r="C21">
+      <c r="C21" s="2">
         <v>4</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A22" t="s">
+      <c r="A22" s="1" t="s">
         <v>1642</v>
       </c>
-      <c r="B22" t="s">
+      <c r="B22" s="2" t="s">
         <v>1643</v>
       </c>
-      <c r="C22">
+      <c r="C22" s="2">
         <v>3</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A23" t="s">
+      <c r="A23" s="1" t="s">
         <v>1653</v>
       </c>
-      <c r="B23" t="s">
+      <c r="B23" s="2" t="s">
         <v>1654</v>
       </c>
-      <c r="C23">
+      <c r="C23" s="2">
         <v>3</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A24" t="s">
+      <c r="A24" s="1" t="s">
         <v>1657</v>
       </c>
-      <c r="B24" t="s">
+      <c r="B24" s="2" t="s">
         <v>1658</v>
       </c>
-      <c r="C24">
+      <c r="C24" s="2">
         <v>3</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A25" t="s">
+      <c r="A25" s="1" t="s">
         <v>1020</v>
       </c>
-      <c r="B25" t="s">
+      <c r="B25" s="2" t="s">
         <v>1021</v>
       </c>
-      <c r="C25">
+      <c r="C25" s="2">
         <v>3</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A26" t="s">
+      <c r="A26" s="1" t="s">
         <v>1038</v>
       </c>
-      <c r="B26" t="s">
+      <c r="B26" s="2" t="s">
         <v>1039</v>
       </c>
-      <c r="C26">
+      <c r="C26" s="2">
         <v>3</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A27" t="s">
+      <c r="A27" s="1" t="s">
         <v>448</v>
       </c>
-      <c r="B27" t="s">
+      <c r="B27" s="2" t="s">
         <v>449</v>
       </c>
-      <c r="C27">
+      <c r="C27" s="2">
         <v>3</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A28" t="s">
+      <c r="A28" s="1" t="s">
         <v>452</v>
       </c>
-      <c r="B28" t="s">
+      <c r="B28" s="2" t="s">
         <v>453</v>
       </c>
-      <c r="C28">
+      <c r="C28" s="2">
         <v>3</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A29" t="s">
+      <c r="A29" s="1" t="s">
         <v>704</v>
       </c>
-      <c r="B29" t="s">
+      <c r="B29" s="2" t="s">
         <v>705</v>
       </c>
-      <c r="C29">
+      <c r="C29" s="2">
         <v>3</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A30" t="s">
+      <c r="A30" s="1" t="s">
         <v>718</v>
       </c>
-      <c r="B30" t="s">
+      <c r="B30" s="2" t="s">
         <v>719</v>
       </c>
-      <c r="C30">
+      <c r="C30" s="2">
         <v>3</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A31" t="s">
+      <c r="A31" s="1" t="s">
         <v>762</v>
       </c>
-      <c r="B31" t="s">
+      <c r="B31" s="2" t="s">
         <v>763</v>
       </c>
-      <c r="C31">
+      <c r="C31" s="2">
         <v>3</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A32" t="s">
+      <c r="A32" s="1" t="s">
         <v>1669</v>
       </c>
-      <c r="B32" t="s">
+      <c r="B32" s="2" t="s">
         <v>1670</v>
       </c>
-      <c r="C32">
+      <c r="C32" s="2">
         <v>3</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A33" t="s">
+      <c r="A33" s="1" t="s">
         <v>1130</v>
       </c>
-      <c r="B33" t="s">
+      <c r="B33" s="2" t="s">
         <v>1131</v>
       </c>
-      <c r="C33">
+      <c r="C33" s="2">
         <v>3</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A34" t="s">
+      <c r="A34" s="1" t="s">
         <v>858</v>
       </c>
-      <c r="B34" t="s">
+      <c r="B34" s="2" t="s">
         <v>859</v>
       </c>
-      <c r="C34">
+      <c r="C34" s="2">
         <v>3</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A35" t="s">
+      <c r="A35" s="1" t="s">
         <v>880</v>
       </c>
-      <c r="B35" t="s">
+      <c r="B35" s="2" t="s">
         <v>881</v>
       </c>
-      <c r="C35">
+      <c r="C35" s="2">
         <v>3</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A36" t="s">
+      <c r="A36" s="1" t="s">
         <v>960</v>
       </c>
-      <c r="B36" t="s">
+      <c r="B36" s="2" t="s">
         <v>961</v>
       </c>
-      <c r="C36">
+      <c r="C36" s="2">
         <v>3</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A37" t="s">
+      <c r="A37" s="1" t="s">
         <v>966</v>
       </c>
-      <c r="B37" t="s">
+      <c r="B37" s="2" t="s">
         <v>967</v>
       </c>
-      <c r="C37">
+      <c r="C37" s="2">
         <v>3</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A38" t="s">
+      <c r="A38" s="1" t="s">
         <v>1640</v>
       </c>
-      <c r="B38" t="s">
+      <c r="B38" s="2" t="s">
         <v>1641</v>
       </c>
-      <c r="C38">
+      <c r="C38" s="2">
         <v>2</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A39" t="s">
+      <c r="A39" s="1" t="s">
         <v>1052</v>
       </c>
-      <c r="B39" t="s">
+      <c r="B39" s="2" t="s">
         <v>1053</v>
       </c>
-      <c r="C39">
+      <c r="C39" s="2">
         <v>2</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A40" t="s">
+      <c r="A40" s="1" t="s">
         <v>1268</v>
       </c>
-      <c r="B40" t="s">
+      <c r="B40" s="2" t="s">
         <v>1269</v>
       </c>
-      <c r="C40">
+      <c r="C40" s="2">
         <v>2</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A41" t="s">
+      <c r="A41" s="1" t="s">
         <v>1476</v>
       </c>
-      <c r="B41" t="s">
+      <c r="B41" s="2" t="s">
         <v>1477</v>
       </c>
-      <c r="C41">
+      <c r="C41" s="2">
         <v>2</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A42" t="s">
+      <c r="A42" s="1" t="s">
         <v>404</v>
       </c>
-      <c r="B42" t="s">
+      <c r="B42" s="2" t="s">
         <v>405</v>
       </c>
-      <c r="C42">
+      <c r="C42" s="2">
         <v>2</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A43" t="s">
+      <c r="A43" s="1" t="s">
         <v>1508</v>
       </c>
-      <c r="B43" t="s">
+      <c r="B43" s="2" t="s">
         <v>1509</v>
       </c>
-      <c r="C43">
+      <c r="C43" s="2">
         <v>2</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A44" t="s">
+      <c r="A44" s="1" t="s">
         <v>474</v>
       </c>
-      <c r="B44" t="s">
+      <c r="B44" s="2" t="s">
         <v>475</v>
       </c>
-      <c r="C44">
+      <c r="C44" s="2">
         <v>2</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A45" t="s">
+      <c r="A45" s="1" t="s">
         <v>1661</v>
       </c>
-      <c r="B45" t="s">
+      <c r="B45" s="2" t="s">
         <v>1662</v>
       </c>
-      <c r="C45">
+      <c r="C45" s="2">
         <v>2</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A46" t="s">
+      <c r="A46" s="1" t="s">
         <v>494</v>
       </c>
-      <c r="B46" t="s">
+      <c r="B46" s="2" t="s">
         <v>495</v>
       </c>
-      <c r="C46">
+      <c r="C46" s="2">
         <v>2</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A47" t="s">
+      <c r="A47" s="1" t="s">
         <v>622</v>
       </c>
-      <c r="B47" t="s">
+      <c r="B47" s="2" t="s">
         <v>623</v>
       </c>
-      <c r="C47">
+      <c r="C47" s="2">
         <v>2</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A48" t="s">
+      <c r="A48" s="1" t="s">
         <v>1667</v>
       </c>
-      <c r="B48" t="s">
+      <c r="B48" s="2" t="s">
         <v>1668</v>
       </c>
-      <c r="C48">
+      <c r="C48" s="2">
         <v>2</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A49" t="s">
+      <c r="A49" s="1" t="s">
         <v>740</v>
       </c>
-      <c r="B49" t="s">
+      <c r="B49" s="2" t="s">
         <v>741</v>
       </c>
-      <c r="C49">
+      <c r="C49" s="2">
         <v>2</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A50" t="s">
+      <c r="A50" s="1" t="s">
         <v>750</v>
       </c>
-      <c r="B50" t="s">
+      <c r="B50" s="2" t="s">
         <v>751</v>
       </c>
-      <c r="C50">
+      <c r="C50" s="2">
         <v>2</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A51" t="s">
+      <c r="A51" s="1" t="s">
         <v>1558</v>
       </c>
-      <c r="B51" t="s">
+      <c r="B51" s="2" t="s">
         <v>1559</v>
       </c>
-      <c r="C51">
+      <c r="C51" s="2">
         <v>2</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A52" t="s">
+      <c r="A52" s="1" t="s">
         <v>1066</v>
       </c>
-      <c r="B52" t="s">
+      <c r="B52" s="2" t="s">
         <v>1067</v>
       </c>
-      <c r="C52">
+      <c r="C52" s="2">
         <v>2</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A53" t="s">
+      <c r="A53" s="1" t="s">
         <v>808</v>
       </c>
-      <c r="B53" t="s">
+      <c r="B53" s="2" t="s">
         <v>809</v>
       </c>
-      <c r="C53">
+      <c r="C53" s="2">
         <v>2</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A54" t="s">
+      <c r="A54" s="1" t="s">
         <v>1671</v>
       </c>
-      <c r="B54" t="s">
+      <c r="B54" s="2" t="s">
         <v>1672</v>
       </c>
-      <c r="C54">
+      <c r="C54" s="2">
         <v>2</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A55" t="s">
+      <c r="A55" s="1" t="s">
         <v>1030</v>
       </c>
-      <c r="B55" t="s">
+      <c r="B55" s="2" t="s">
         <v>1031</v>
       </c>
-      <c r="C55">
+      <c r="C55" s="2">
         <v>2</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A56" t="s">
+      <c r="A56" s="1" t="s">
         <v>870</v>
       </c>
-      <c r="B56" t="s">
+      <c r="B56" s="2" t="s">
         <v>871</v>
       </c>
-      <c r="C56">
+      <c r="C56" s="2">
         <v>2</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A57" t="s">
+      <c r="A57" s="1" t="s">
         <v>894</v>
       </c>
-      <c r="B57" t="s">
+      <c r="B57" s="2" t="s">
         <v>895</v>
       </c>
-      <c r="C57">
+      <c r="C57" s="2">
         <v>2</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A58" t="s">
+      <c r="A58" s="1" t="s">
         <v>900</v>
       </c>
-      <c r="B58" t="s">
+      <c r="B58" s="2" t="s">
         <v>901</v>
       </c>
-      <c r="C58">
+      <c r="C58" s="2">
         <v>2</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A59" t="s">
+      <c r="A59" s="1" t="s">
         <v>904</v>
       </c>
-      <c r="B59" t="s">
+      <c r="B59" s="2" t="s">
         <v>905</v>
       </c>
-      <c r="C59">
+      <c r="C59" s="2">
         <v>2</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A60" t="s">
+      <c r="A60" s="1" t="s">
         <v>922</v>
       </c>
-      <c r="B60" t="s">
+      <c r="B60" s="2" t="s">
         <v>923</v>
       </c>
-      <c r="C60">
+      <c r="C60" s="2">
         <v>2</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A61" t="s">
+      <c r="A61" s="1" t="s">
         <v>942</v>
       </c>
-      <c r="B61" t="s">
+      <c r="B61" s="2" t="s">
         <v>943</v>
       </c>
-      <c r="C61">
+      <c r="C61" s="2">
         <v>2</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A62" t="s">
+      <c r="A62" s="1" t="s">
         <v>950</v>
       </c>
-      <c r="B62" t="s">
+      <c r="B62" s="2" t="s">
         <v>951</v>
       </c>
-      <c r="C62">
+      <c r="C62" s="2">
         <v>2</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A63" t="s">
+      <c r="A63" s="1" t="s">
         <v>1638</v>
       </c>
-      <c r="B63" t="s">
+      <c r="B63" s="2" t="s">
         <v>1639</v>
       </c>
-      <c r="C63">
+      <c r="C63" s="2">
         <v>1</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A64" t="s">
+      <c r="A64" s="1" t="s">
         <v>1649</v>
       </c>
-      <c r="B64" t="s">
+      <c r="B64" s="2" t="s">
         <v>1650</v>
       </c>
-      <c r="C64">
+      <c r="C64" s="2">
         <v>1</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A2" r:id="rId1" xr:uid="{150CC35A-402B-421B-A26A-7CC796B30CC2}"/>
+    <hyperlink ref="A3" r:id="rId2" xr:uid="{BD9BFF25-95FD-41EE-B88F-D6C927F9EFC2}"/>
+    <hyperlink ref="A4" r:id="rId3" xr:uid="{ADCEBD44-657E-4E29-BD32-0545E9D09BDD}"/>
+    <hyperlink ref="A5" r:id="rId4" xr:uid="{A454F9BE-92D3-4D37-9470-7DE99BE13D1B}"/>
+    <hyperlink ref="A6" r:id="rId5" xr:uid="{457A8DDE-39F7-4DB8-A67D-6507D7C0C01B}"/>
+    <hyperlink ref="A58" r:id="rId6" xr:uid="{60C6DD48-B8E1-469D-A3D5-691D9419B967}"/>
+    <hyperlink ref="A37" r:id="rId7" xr:uid="{99C920A0-C53C-4A23-A839-CB8C292813FC}"/>
+    <hyperlink ref="A56" r:id="rId8" xr:uid="{F8C5816A-0B39-416B-8327-E18CD88F3DCC}"/>
+    <hyperlink ref="A7" r:id="rId9" xr:uid="{458C906A-9775-4EF8-9472-0751135849FF}"/>
+    <hyperlink ref="A8" r:id="rId10" xr:uid="{34E156A3-17ED-4A35-8A0E-9B744400DF50}"/>
+    <hyperlink ref="A9" r:id="rId11" xr:uid="{80C465EC-DCF9-47CB-8A22-DA011A2ADC1A}"/>
+    <hyperlink ref="A10" r:id="rId12" xr:uid="{BBA2D32B-BC8F-40B0-8852-1258239D614E}"/>
+    <hyperlink ref="A11" r:id="rId13" xr:uid="{3A5D07B1-4202-44C7-8741-B2F978E08AC9}"/>
+    <hyperlink ref="A12" r:id="rId14" xr:uid="{2FA358B1-3E22-4116-93AA-5696DEAEC100}"/>
+    <hyperlink ref="A13" r:id="rId15" xr:uid="{317BED3A-1A84-4F54-A121-E476C4B13845}"/>
+    <hyperlink ref="A14" r:id="rId16" xr:uid="{862BF4F5-649E-4F3E-8CF6-54060F636785}"/>
+    <hyperlink ref="A15" r:id="rId17" xr:uid="{02A44C17-842D-4767-A248-6C5CF4422692}"/>
+    <hyperlink ref="A16" r:id="rId18" xr:uid="{1065F55E-E7E2-4BBB-AA9C-7FFD4D6A9753}"/>
+    <hyperlink ref="A17" r:id="rId19" xr:uid="{85AFFFA5-C01F-4283-A3C5-FADD4A38403E}"/>
+    <hyperlink ref="A18" r:id="rId20" xr:uid="{1E4D82FC-8125-4959-ABC6-3F675C377B79}"/>
+    <hyperlink ref="A19" r:id="rId21" xr:uid="{3A7CAF85-3E06-4656-A702-1C011740F782}"/>
+    <hyperlink ref="A20" r:id="rId22" xr:uid="{A7691CFA-3767-4582-A847-CFA3A0DEC2F1}"/>
+    <hyperlink ref="A21" r:id="rId23" xr:uid="{662318A0-5E89-4B31-9269-E6FA95DFED70}"/>
+    <hyperlink ref="A22" r:id="rId24" xr:uid="{39714AD2-C94F-4A9F-8B0B-8A515469D687}"/>
+    <hyperlink ref="A23" r:id="rId25" xr:uid="{57B0CC11-82F4-45DB-8044-3DB54E3D214F}"/>
+    <hyperlink ref="A24" r:id="rId26" xr:uid="{9B213885-90AD-47DA-B598-CA184020A0DD}"/>
+    <hyperlink ref="A25" r:id="rId27" xr:uid="{C719E6FF-6B66-43A9-B80C-8238EDA93A5F}"/>
+    <hyperlink ref="A26" r:id="rId28" xr:uid="{0C8A6006-1339-4609-B7E3-10653BC1BA6D}"/>
+    <hyperlink ref="A27" r:id="rId29" xr:uid="{08450F03-3284-43D0-83A4-2AF9D26162FF}"/>
+    <hyperlink ref="A28" r:id="rId30" xr:uid="{44C8DD85-68CA-4F70-A2D7-B46D38AE47CA}"/>
+    <hyperlink ref="A29" r:id="rId31" xr:uid="{B76F5504-0DA8-48F8-8A56-BA8837F52F34}"/>
+    <hyperlink ref="A30" r:id="rId32" xr:uid="{92017EB7-44FD-48BB-B4F8-958524E17367}"/>
+    <hyperlink ref="A31" r:id="rId33" xr:uid="{7F914B48-297B-4651-BF03-29ECC5729234}"/>
+    <hyperlink ref="A32" r:id="rId34" xr:uid="{4441AD9E-39DA-46DB-BD35-42EB09ADDF66}"/>
+    <hyperlink ref="A33" r:id="rId35" xr:uid="{F72160F5-950A-49D7-8E74-1947B5D4C2E9}"/>
+    <hyperlink ref="A34" r:id="rId36" xr:uid="{D1257522-B3B1-4665-A4F4-246A16A5AB17}"/>
+    <hyperlink ref="A35" r:id="rId37" xr:uid="{032AF1B8-FD83-49B9-B93A-62C712217056}"/>
+    <hyperlink ref="A36" r:id="rId38" xr:uid="{160211B4-5236-4EE6-A7B0-A46036512387}"/>
+    <hyperlink ref="A38" r:id="rId39" xr:uid="{52920DE3-75A1-46C9-BD1D-1FEBAE4C927A}"/>
+    <hyperlink ref="A39" r:id="rId40" xr:uid="{ACAACDC4-5404-4D67-A55C-C9327DAF0AC3}"/>
+    <hyperlink ref="A40" r:id="rId41" xr:uid="{49E47547-6D58-4829-907E-0A69D988E3CE}"/>
+    <hyperlink ref="A41" r:id="rId42" xr:uid="{61634473-4F5C-47A1-B6F9-3F6665B08F2B}"/>
+    <hyperlink ref="A42" r:id="rId43" xr:uid="{D1895D3D-4394-425C-8EBB-C93D25900E67}"/>
+    <hyperlink ref="A43" r:id="rId44" xr:uid="{B55247BD-E3D3-43BA-83D7-15D2AFB39867}"/>
+    <hyperlink ref="A44" r:id="rId45" xr:uid="{C078822E-9C36-4383-8AA3-E96AA8F3D7BC}"/>
+    <hyperlink ref="A45" r:id="rId46" xr:uid="{DAA6C5E3-7F5D-4781-8CEF-B8077EF0AAE2}"/>
+    <hyperlink ref="A46" r:id="rId47" xr:uid="{4862979C-C579-46C1-B4F5-DA85B6D59C62}"/>
+    <hyperlink ref="A47" r:id="rId48" xr:uid="{102E9BF1-DAAB-4ED8-A24D-419F6D2F33D0}"/>
+    <hyperlink ref="A48" r:id="rId49" xr:uid="{7C9B8324-2A0F-45B3-ACB7-28D15E81E62B}"/>
+    <hyperlink ref="A49" r:id="rId50" xr:uid="{16F52E6A-EBE0-49C7-AEDF-294590D59C4D}"/>
+    <hyperlink ref="A50" r:id="rId51" xr:uid="{02763BD8-C26A-43F3-88BC-769548282D27}"/>
+    <hyperlink ref="A51" r:id="rId52" xr:uid="{73FBC058-2138-421E-96DF-2276AFA55F83}"/>
+    <hyperlink ref="A52" r:id="rId53" xr:uid="{1A7178A7-4320-4F78-80F8-B5AD4D72C9C7}"/>
+    <hyperlink ref="A53" r:id="rId54" xr:uid="{F2610E93-5C4E-4755-A51C-0F45D656D43A}"/>
+    <hyperlink ref="A54" r:id="rId55" xr:uid="{386C6551-CB7F-40E6-B795-254B747F7B30}"/>
+    <hyperlink ref="A55" r:id="rId56" xr:uid="{569BD210-8FC1-4875-9466-02E65EB4C03D}"/>
+    <hyperlink ref="A57" r:id="rId57" xr:uid="{6B3B4943-7F49-458B-86E9-CE8B2C4EA2E8}"/>
+    <hyperlink ref="A59" r:id="rId58" xr:uid="{ACB2BC7D-10A9-431A-9CB3-039D3FB29D14}"/>
+    <hyperlink ref="A60" r:id="rId59" xr:uid="{BBCB1538-EE6F-4477-877B-44D6F5F48E57}"/>
+    <hyperlink ref="A61" r:id="rId60" xr:uid="{E5278626-0E56-43CC-A863-C974EC4E2080}"/>
+    <hyperlink ref="A62" r:id="rId61" xr:uid="{2B814B1F-61AC-47D5-A798-9E395325E6C2}"/>
+    <hyperlink ref="A63" r:id="rId62" xr:uid="{690B353F-EA40-4EB6-ACBB-BD9BEC1E3E73}"/>
+    <hyperlink ref="A64" r:id="rId63" xr:uid="{B25E3DC8-ED8B-48B6-B54B-2E0716173549}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
-    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId64"/>
   </tableParts>
 </worksheet>
 </file>